--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.822558333333333</v>
+        <v>23.94933966666666</v>
       </c>
       <c r="H2">
-        <v>23.467675</v>
+        <v>71.84801899999999</v>
       </c>
       <c r="I2">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="J2">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N2">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O2">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P2">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q2">
-        <v>2.762880667983334</v>
+        <v>3.986271790157999</v>
       </c>
       <c r="R2">
-        <v>24.86592601185</v>
+        <v>35.87644611142199</v>
       </c>
       <c r="S2">
-        <v>2.164633404841399E-05</v>
+        <v>3.246124684637307E-05</v>
       </c>
       <c r="T2">
-        <v>2.164633404841399E-05</v>
+        <v>3.246124684637307E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.822558333333333</v>
+        <v>23.94933966666666</v>
       </c>
       <c r="H3">
-        <v>23.467675</v>
+        <v>71.84801899999999</v>
       </c>
       <c r="I3">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="J3">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.670859</v>
       </c>
       <c r="O3">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P3">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q3">
-        <v>14.78687510920278</v>
+        <v>45.27110946425788</v>
       </c>
       <c r="R3">
-        <v>133.081875982825</v>
+        <v>407.439985178321</v>
       </c>
       <c r="S3">
-        <v>0.0001158506923064519</v>
+        <v>0.0003686544060936206</v>
       </c>
       <c r="T3">
-        <v>0.0001158506923064519</v>
+        <v>0.0003686544060936207</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.822558333333333</v>
+        <v>23.94933966666666</v>
       </c>
       <c r="H4">
-        <v>23.467675</v>
+        <v>71.84801899999999</v>
       </c>
       <c r="I4">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="J4">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N4">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O4">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P4">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q4">
-        <v>139.9791299661028</v>
+        <v>410.3564319824558</v>
       </c>
       <c r="R4">
-        <v>1259.812169694925</v>
+        <v>3693.207887842102</v>
       </c>
       <c r="S4">
-        <v>0.001096694128763905</v>
+        <v>0.003341639038880342</v>
       </c>
       <c r="T4">
-        <v>0.001096694128763905</v>
+        <v>0.003341639038880342</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.822558333333333</v>
+        <v>23.94933966666666</v>
       </c>
       <c r="H5">
-        <v>23.467675</v>
+        <v>71.84801899999999</v>
       </c>
       <c r="I5">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="J5">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N5">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O5">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P5">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q5">
-        <v>1.761747044963889</v>
+        <v>3.525478511858111</v>
       </c>
       <c r="R5">
-        <v>15.855723404675</v>
+        <v>31.729306606723</v>
       </c>
       <c r="S5">
-        <v>1.380275503246042E-05</v>
+        <v>2.870888746411196E-05</v>
       </c>
       <c r="T5">
-        <v>1.380275503246042E-05</v>
+        <v>2.870888746411196E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>18113.320312</v>
       </c>
       <c r="I6">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751565</v>
       </c>
       <c r="J6">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751567</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N6">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O6">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P6">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q6">
-        <v>2132.505351425509</v>
+        <v>1004.963237550384</v>
       </c>
       <c r="R6">
-        <v>19192.54816282959</v>
+        <v>9044.669137953455</v>
       </c>
       <c r="S6">
-        <v>0.01670753418050464</v>
+        <v>0.008183676739302377</v>
       </c>
       <c r="T6">
-        <v>0.01670753418050464</v>
+        <v>0.008183676739302379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>18113.320312</v>
       </c>
       <c r="I7">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751565</v>
       </c>
       <c r="J7">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751567</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>5.670859</v>
       </c>
       <c r="O7">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P7">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q7">
         <v>11413.12061235422</v>
@@ -883,10 +883,10 @@
         <v>102718.085511188</v>
       </c>
       <c r="S7">
-        <v>0.08941834664549074</v>
+        <v>0.09294000634873281</v>
       </c>
       <c r="T7">
-        <v>0.08941834664549074</v>
+        <v>0.09294000634873284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>18113.320312</v>
       </c>
       <c r="I8">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751565</v>
       </c>
       <c r="J8">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751567</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N8">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O8">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P8">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q8">
-        <v>108041.6708545306</v>
+        <v>103453.3393967016</v>
       </c>
       <c r="R8">
-        <v>972375.0376907756</v>
+        <v>931080.0545703141</v>
       </c>
       <c r="S8">
-        <v>0.8464738001779204</v>
+        <v>0.842447420552033</v>
       </c>
       <c r="T8">
-        <v>0.8464738001779204</v>
+        <v>0.8424474205520331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>18113.320312</v>
       </c>
       <c r="I9">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751565</v>
       </c>
       <c r="J9">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751567</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N9">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O9">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P9">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q9">
-        <v>1359.789094324443</v>
+        <v>888.794464024945</v>
       </c>
       <c r="R9">
-        <v>12238.10184891999</v>
+        <v>7999.150176224504</v>
       </c>
       <c r="S9">
-        <v>0.01065353611259</v>
+        <v>0.007237684235088254</v>
       </c>
       <c r="T9">
-        <v>0.01065353611259</v>
+        <v>0.007237684235088256</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>221.4914043333333</v>
+        <v>285.3476563333333</v>
       </c>
       <c r="H10">
-        <v>664.474213</v>
+        <v>856.042969</v>
       </c>
       <c r="I10">
-        <v>0.03533625598942085</v>
+        <v>0.0449356144375536</v>
       </c>
       <c r="J10">
-        <v>0.03533625598942085</v>
+        <v>0.04493561443755361</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N10">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O10">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P10">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q10">
-        <v>78.22943506210733</v>
+        <v>47.49497600605799</v>
       </c>
       <c r="R10">
-        <v>704.0649155589659</v>
+        <v>427.454784054522</v>
       </c>
       <c r="S10">
-        <v>0.0006129039532529315</v>
+        <v>0.000386763929118367</v>
       </c>
       <c r="T10">
-        <v>0.0006129039532529315</v>
+        <v>0.0003867639291183671</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>221.4914043333333</v>
+        <v>285.3476563333333</v>
       </c>
       <c r="H11">
-        <v>664.474213</v>
+        <v>856.042969</v>
       </c>
       <c r="I11">
-        <v>0.03533625598942085</v>
+        <v>0.0449356144375536</v>
       </c>
       <c r="J11">
-        <v>0.03533625598942085</v>
+        <v>0.04493561443755361</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.670859</v>
       </c>
       <c r="O11">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P11">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q11">
-        <v>418.6821745621074</v>
+        <v>539.3887750155967</v>
       </c>
       <c r="R11">
-        <v>3768.139571058967</v>
+        <v>4854.498975140371</v>
       </c>
       <c r="S11">
-        <v>0.003280248153932367</v>
+        <v>0.004392382931633991</v>
       </c>
       <c r="T11">
-        <v>0.003280248153932367</v>
+        <v>0.004392382931633992</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>221.4914043333333</v>
+        <v>285.3476563333333</v>
       </c>
       <c r="H12">
-        <v>664.474213</v>
+        <v>856.042969</v>
       </c>
       <c r="I12">
-        <v>0.03533625598942085</v>
+        <v>0.0449356144375536</v>
       </c>
       <c r="J12">
-        <v>0.03533625598942085</v>
+        <v>0.04493561443755361</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N12">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O12">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P12">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q12">
-        <v>3963.43149547839</v>
+        <v>4889.247376222133</v>
       </c>
       <c r="R12">
-        <v>35670.88345930551</v>
+        <v>44003.2263859992</v>
       </c>
       <c r="S12">
-        <v>0.03105228652229572</v>
+        <v>0.03981441164257339</v>
       </c>
       <c r="T12">
-        <v>0.03105228652229572</v>
+        <v>0.0398144116425734</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>221.4914043333333</v>
+        <v>285.3476563333333</v>
       </c>
       <c r="H13">
-        <v>664.474213</v>
+        <v>856.042969</v>
       </c>
       <c r="I13">
-        <v>0.03533625598942085</v>
+        <v>0.0449356144375536</v>
       </c>
       <c r="J13">
-        <v>0.03533625598942085</v>
+        <v>0.04493561443755361</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N13">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O13">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P13">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q13">
-        <v>49.88289130505922</v>
+        <v>42.00479198231922</v>
       </c>
       <c r="R13">
-        <v>448.946021745533</v>
+        <v>378.043127840873</v>
       </c>
       <c r="S13">
-        <v>0.000390817359939829</v>
+        <v>0.0003420559342278495</v>
       </c>
       <c r="T13">
-        <v>0.000390817359939829</v>
+        <v>0.0003420559342278496</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.018774</v>
+        <v>3.074321666666667</v>
       </c>
       <c r="H14">
-        <v>3.056322</v>
+        <v>9.222965</v>
       </c>
       <c r="I14">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="J14">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N14">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O14">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P14">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q14">
-        <v>0.359824864156</v>
+        <v>0.5117085441299999</v>
       </c>
       <c r="R14">
-        <v>3.238423777404</v>
+        <v>4.605376897169999</v>
       </c>
       <c r="S14">
-        <v>2.81911893579218E-06</v>
+        <v>4.166975620030097E-06</v>
       </c>
       <c r="T14">
-        <v>2.81911893579218E-06</v>
+        <v>4.166975620030098E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.018774</v>
+        <v>3.074321666666667</v>
       </c>
       <c r="H15">
-        <v>3.056322</v>
+        <v>9.222965</v>
       </c>
       <c r="I15">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="J15">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>5.670859</v>
       </c>
       <c r="O15">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P15">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q15">
-        <v>1.925774568955333</v>
+        <v>5.811348230770555</v>
       </c>
       <c r="R15">
-        <v>17.331971120598</v>
+        <v>52.302134076935</v>
       </c>
       <c r="S15">
-        <v>1.508786105191246E-05</v>
+        <v>4.732331846890935E-05</v>
       </c>
       <c r="T15">
-        <v>1.508786105191246E-05</v>
+        <v>4.732331846890936E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.018774</v>
+        <v>3.074321666666667</v>
       </c>
       <c r="H16">
-        <v>3.056322</v>
+        <v>9.222965</v>
       </c>
       <c r="I16">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="J16">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N16">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O16">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P16">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q16">
-        <v>18.23023774005133</v>
+        <v>52.67651164744112</v>
       </c>
       <c r="R16">
-        <v>164.072139660462</v>
+        <v>474.08860482697</v>
       </c>
       <c r="S16">
-        <v>0.0001428283966354551</v>
+        <v>0.0004289585200425225</v>
       </c>
       <c r="T16">
-        <v>0.0001428283966354551</v>
+        <v>0.0004289585200425225</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.018774</v>
+        <v>3.074321666666667</v>
       </c>
       <c r="H17">
-        <v>3.056322</v>
+        <v>9.222965</v>
       </c>
       <c r="I17">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="J17">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N17">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O17">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P17">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q17">
-        <v>0.2294418280446666</v>
+        <v>0.4525575704894444</v>
       </c>
       <c r="R17">
-        <v>2.064976452402</v>
+        <v>4.073018134405</v>
       </c>
       <c r="S17">
-        <v>1.797607298819312E-06</v>
+        <v>3.685293873870668E-06</v>
       </c>
       <c r="T17">
-        <v>1.797607298819312E-06</v>
+        <v>3.685293873870669E-06</v>
       </c>
     </row>
   </sheetData>
